--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_10_4.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_10_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,745 +478,776 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_2</t>
+          <t>model_10_4_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.2207663335330463</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3257256295936155</v>
+        <v>-0.2915610779418158</v>
       </c>
       <c r="D2" t="n">
-        <v>-17.72220259625652</v>
+        <v>0.9667304022259837</v>
       </c>
       <c r="E2" t="n">
-        <v>-3.001350350602027</v>
+        <v>0.8072680958266204</v>
       </c>
       <c r="F2" t="n">
-        <v>1.351028561592102</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G2" t="n">
-        <v>1.899954676628113</v>
+        <v>0.2271744459867477</v>
       </c>
       <c r="H2" t="n">
-        <v>7.168467044830322</v>
+        <v>0.04398776590824127</v>
       </c>
       <c r="I2" t="n">
-        <v>4.379254817962646</v>
+        <v>0.1409687995910645</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_1</t>
+          <t>model_10_4_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07164011489165212</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.263099225939823</v>
+        <v>-0.2915610779418158</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.788718715240945</v>
+        <v>0.9667304022259837</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.015805264918443</v>
+        <v>0.8072680958266204</v>
       </c>
       <c r="F3" t="n">
-        <v>1.027420878410339</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G3" t="n">
-        <v>3.243345499038696</v>
+        <v>0.2271744459867477</v>
       </c>
       <c r="H3" t="n">
-        <v>3.365076303482056</v>
+        <v>0.04398776590824127</v>
       </c>
       <c r="I3" t="n">
-        <v>3.300630807876587</v>
+        <v>0.1409687995910645</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_23</t>
+          <t>model_10_4_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09801161719899187</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.274609720702454</v>
+        <v>-0.2915610779418158</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.460895065063021</v>
+        <v>0.9667304022259837</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.00454008197779</v>
+        <v>0.8072680958266204</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9982353448867798</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G4" t="n">
-        <v>4.692984580993652</v>
+        <v>0.2271744459867477</v>
       </c>
       <c r="H4" t="n">
-        <v>1.708013892173767</v>
+        <v>0.04398776590824127</v>
       </c>
       <c r="I4" t="n">
-        <v>3.288301467895508</v>
+        <v>0.1409687995910645</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_19</t>
+          <t>model_10_4_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09803279312657098</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.275078610419415</v>
+        <v>-0.2915610779418158</v>
       </c>
       <c r="D5" t="n">
-        <v>-3.458508607807743</v>
+        <v>0.9667304022259837</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.004464095170809</v>
+        <v>0.8072680958266204</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9982118606567383</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G5" t="n">
-        <v>4.693656921386719</v>
+        <v>0.2271744459867477</v>
       </c>
       <c r="H5" t="n">
-        <v>1.707100033760071</v>
+        <v>0.04398776590824127</v>
       </c>
       <c r="I5" t="n">
-        <v>3.28821849822998</v>
+        <v>0.1409687995910645</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_22</t>
+          <t>model_10_4_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.09803803242576514</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.274702240413788</v>
+        <v>-0.2915610779418158</v>
       </c>
       <c r="D6" t="n">
-        <v>-3.460063252582574</v>
+        <v>0.9667304022259837</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.004451411496012</v>
+        <v>0.8072680958266204</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9982061386108398</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G6" t="n">
-        <v>4.693117141723633</v>
+        <v>0.2271744459867477</v>
       </c>
       <c r="H6" t="n">
-        <v>1.707695364952087</v>
+        <v>0.04398776590824127</v>
       </c>
       <c r="I6" t="n">
-        <v>3.288204669952393</v>
+        <v>0.1409687995910645</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_20</t>
+          <t>model_10_4_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09808315768945608</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.274780841612609</v>
+        <v>-0.2915610779418158</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.458753097195623</v>
+        <v>0.9667304022259837</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.004299340954548</v>
+        <v>0.8072680958266204</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9981561303138733</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G7" t="n">
-        <v>4.693230628967285</v>
+        <v>0.2271744459867477</v>
       </c>
       <c r="H7" t="n">
-        <v>1.707193732261658</v>
+        <v>0.04398776590824127</v>
       </c>
       <c r="I7" t="n">
-        <v>3.28803825378418</v>
+        <v>0.1409687995910645</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_21</t>
+          <t>model_10_4_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0980947483412673</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.274742386399821</v>
+        <v>-0.2915610779418158</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.458744493576735</v>
+        <v>0.9667304022259837</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.004261726789061</v>
+        <v>0.8072680958266204</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9981433153152466</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G8" t="n">
-        <v>4.693174362182617</v>
+        <v>0.2271744459867477</v>
       </c>
       <c r="H8" t="n">
-        <v>1.707190275192261</v>
+        <v>0.04398776590824127</v>
       </c>
       <c r="I8" t="n">
-        <v>3.287997007369995</v>
+        <v>0.1409687995910645</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_18</t>
+          <t>model_10_4_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1016661324167475</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.259585899589622</v>
+        <v>-0.2915610779418158</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.450040761426955</v>
+        <v>0.9667304022259837</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.992321585409463</v>
+        <v>0.8072680958266204</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9941908717155457</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G9" t="n">
-        <v>4.671453475952148</v>
+        <v>0.2271744459867477</v>
       </c>
       <c r="H9" t="n">
-        <v>1.703858017921448</v>
+        <v>0.04398776590824127</v>
       </c>
       <c r="I9" t="n">
-        <v>3.274929285049438</v>
+        <v>0.1409687995910645</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_17</t>
+          <t>model_10_4_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1044135209196073</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.258519342370338</v>
+        <v>-0.2915610779418158</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.398674744056355</v>
+        <v>0.9667304022259837</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.983129328623547</v>
+        <v>0.8072680958266204</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9911502599716187</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G10" t="n">
-        <v>4.669925212860107</v>
+        <v>0.2271744459867477</v>
       </c>
       <c r="H10" t="n">
-        <v>1.684190511703491</v>
+        <v>0.04398776590824127</v>
       </c>
       <c r="I10" t="n">
-        <v>3.26486873626709</v>
+        <v>0.1409687995910645</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_16</t>
+          <t>model_10_4_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1049322001843928</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.259098425889209</v>
+        <v>-0.2915610779418158</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.38562384077394</v>
+        <v>0.9667304022259837</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.981389534385621</v>
+        <v>0.8072680958266204</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9905763268470764</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G11" t="n">
-        <v>4.670754909515381</v>
+        <v>0.2271744459867477</v>
       </c>
       <c r="H11" t="n">
-        <v>1.679193496704102</v>
+        <v>0.04398776590824127</v>
       </c>
       <c r="I11" t="n">
-        <v>3.262964725494385</v>
+        <v>0.1409687995910645</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_15</t>
+          <t>model_10_4_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.106722736805078</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.255822483308517</v>
+        <v>-0.2915610779418158</v>
       </c>
       <c r="D12" t="n">
-        <v>-3.362982796959899</v>
+        <v>0.9667304022259837</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.975390939541802</v>
+        <v>0.8072680958266204</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9885947108268738</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G12" t="n">
-        <v>4.666059494018555</v>
+        <v>0.2271744459867477</v>
       </c>
       <c r="H12" t="n">
-        <v>1.670524597167969</v>
+        <v>0.04398776590824127</v>
       </c>
       <c r="I12" t="n">
-        <v>3.256399631500244</v>
+        <v>0.1409687995910645</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_14</t>
+          <t>model_10_4_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1072229635996974</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.256197279910328</v>
+        <v>-0.2915610779418158</v>
       </c>
       <c r="D13" t="n">
-        <v>-3.351122829182402</v>
+        <v>0.9667304022259837</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.973701616025631</v>
+        <v>0.8072680958266204</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9880411028862</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G13" t="n">
-        <v>4.666597366333008</v>
+        <v>0.2271744459867477</v>
       </c>
       <c r="H13" t="n">
-        <v>1.665983557701111</v>
+        <v>0.04398776590824127</v>
       </c>
       <c r="I13" t="n">
-        <v>3.254550695419312</v>
+        <v>0.1409687995910645</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_13</t>
+          <t>model_10_4_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1078909211852093</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.256644225370779</v>
+        <v>-0.2915610779418158</v>
       </c>
       <c r="D14" t="n">
-        <v>-3.335551712578084</v>
+        <v>0.9667304022259837</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.971437656869911</v>
+        <v>0.8072680958266204</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9873018860816956</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G14" t="n">
-        <v>4.667237758636475</v>
+        <v>0.2271744459867477</v>
       </c>
       <c r="H14" t="n">
-        <v>1.660021662712097</v>
+        <v>0.04398776590824127</v>
       </c>
       <c r="I14" t="n">
-        <v>3.252073049545288</v>
+        <v>0.1409687995910645</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_12</t>
+          <t>model_10_4_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1080842024396639</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.26042040572179</v>
+        <v>-0.2915610779418158</v>
       </c>
       <c r="D15" t="n">
-        <v>-3.315364971682315</v>
+        <v>0.9667304022259837</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.970737107217698</v>
+        <v>0.8072680958266204</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9870880246162415</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G15" t="n">
-        <v>4.672649383544922</v>
+        <v>0.2271744459867477</v>
       </c>
       <c r="H15" t="n">
-        <v>1.652292370796204</v>
+        <v>0.04398776590824127</v>
       </c>
       <c r="I15" t="n">
-        <v>3.251306295394897</v>
+        <v>0.1409687995910645</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_11</t>
+          <t>model_10_4_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1275282027930719</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.152241730329258</v>
+        <v>-0.2915610779418158</v>
       </c>
       <c r="D16" t="n">
-        <v>-3.376662052657676</v>
+        <v>0.9667304022259837</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.905829759220731</v>
+        <v>0.8072680958266204</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9655691385269165</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G16" t="n">
-        <v>4.517614364624023</v>
+        <v>0.2271744459867477</v>
       </c>
       <c r="H16" t="n">
-        <v>1.675762176513672</v>
+        <v>0.04398776590824127</v>
       </c>
       <c r="I16" t="n">
-        <v>3.180269241333008</v>
+        <v>0.1409687995910645</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_10</t>
+          <t>model_10_4_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1305238776748474</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C17" t="n">
-        <v>-2.137484641634269</v>
+        <v>-0.2915610779418158</v>
       </c>
       <c r="D17" t="n">
-        <v>-3.377907165695275</v>
+        <v>0.9667304022259837</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.895807430559036</v>
+        <v>0.8072680958266204</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9622538685798645</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G17" t="n">
-        <v>4.49646520614624</v>
+        <v>0.2271744459867477</v>
       </c>
       <c r="H17" t="n">
-        <v>1.676238894462585</v>
+        <v>0.04398776590824127</v>
       </c>
       <c r="I17" t="n">
-        <v>3.169299840927124</v>
+        <v>0.1409687995910645</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_9</t>
+          <t>model_10_4_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1347470876372273</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C18" t="n">
-        <v>-2.12482103216184</v>
+        <v>-0.2915610779418158</v>
       </c>
       <c r="D18" t="n">
-        <v>-3.34539459296585</v>
+        <v>0.9667304022259837</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.881674545502281</v>
+        <v>0.8072680958266204</v>
       </c>
       <c r="F18" t="n">
-        <v>0.957580029964447</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G18" t="n">
-        <v>4.478316307067871</v>
+        <v>0.2271744459867477</v>
       </c>
       <c r="H18" t="n">
-        <v>1.663790345191956</v>
+        <v>0.04398776590824127</v>
       </c>
       <c r="I18" t="n">
-        <v>3.153832197189331</v>
+        <v>0.1409687995910645</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_8</t>
+          <t>model_10_4_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1393043248816829</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C19" t="n">
-        <v>-2.099626912497096</v>
+        <v>-0.2915610779418158</v>
       </c>
       <c r="D19" t="n">
-        <v>-3.358192388343192</v>
+        <v>0.9667304022259837</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.866319748413709</v>
+        <v>0.8072680958266204</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9525365233421326</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G19" t="n">
-        <v>4.442209243774414</v>
+        <v>0.2271744459867477</v>
       </c>
       <c r="H19" t="n">
-        <v>1.66869044303894</v>
+        <v>0.04398776590824127</v>
       </c>
       <c r="I19" t="n">
-        <v>3.137027502059937</v>
+        <v>0.1409687995910645</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_7</t>
+          <t>model_10_4_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1420819685895476</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C20" t="n">
-        <v>-2.0897296372706</v>
+        <v>-0.2915610779418158</v>
       </c>
       <c r="D20" t="n">
-        <v>-3.342994118230218</v>
+        <v>0.9667304022259837</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.856952895206105</v>
+        <v>0.8072680958266204</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9494624137878418</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G20" t="n">
-        <v>4.428025245666504</v>
+        <v>0.2271744459867477</v>
       </c>
       <c r="H20" t="n">
-        <v>1.662871241569519</v>
+        <v>0.04398776590824127</v>
       </c>
       <c r="I20" t="n">
-        <v>3.126775741577148</v>
+        <v>0.1409687995910645</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_6</t>
+          <t>model_10_4_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1519611596202701</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C21" t="n">
-        <v>-2.048513031883984</v>
+        <v>-0.2915610779418158</v>
       </c>
       <c r="D21" t="n">
-        <v>-3.31353878143832</v>
+        <v>0.9667304022259837</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.823528931889522</v>
+        <v>0.8072680958266204</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9385290741920471</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G21" t="n">
-        <v>4.368955612182617</v>
+        <v>0.2271744459867477</v>
       </c>
       <c r="H21" t="n">
-        <v>1.651593208312988</v>
+        <v>0.04398776590824127</v>
       </c>
       <c r="I21" t="n">
-        <v>3.090195417404175</v>
+        <v>0.1409687995910645</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_4</t>
+          <t>model_10_4_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1675283330786125</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.858421144731419</v>
+        <v>-0.2915610779418158</v>
       </c>
       <c r="D22" t="n">
-        <v>-3.792278217417659</v>
+        <v>0.9667304022259837</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.770564990673425</v>
+        <v>0.8072680958266204</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9213008284568787</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G22" t="n">
-        <v>4.096527099609375</v>
+        <v>0.2271744459867477</v>
       </c>
       <c r="H22" t="n">
-        <v>1.834895730018616</v>
+        <v>0.04398776590824127</v>
       </c>
       <c r="I22" t="n">
-        <v>3.032228946685791</v>
+        <v>0.1409687995910645</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_3</t>
+          <t>model_10_4_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1700935467547279</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.84623138189385</v>
+        <v>-0.2915610779418158</v>
       </c>
       <c r="D23" t="n">
-        <v>-3.789619634875525</v>
+        <v>0.9667304022259837</v>
       </c>
       <c r="E23" t="n">
-        <v>-1.761676686096021</v>
+        <v>0.8072680958266204</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9184618592262268</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G23" t="n">
-        <v>4.079057216644287</v>
+        <v>0.2271744459867477</v>
       </c>
       <c r="H23" t="n">
-        <v>1.833877801895142</v>
+        <v>0.04398776590824127</v>
       </c>
       <c r="I23" t="n">
-        <v>3.022501468658447</v>
+        <v>0.1409687995910645</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_5</t>
+          <t>model_10_4_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1786775411575762</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.894001818045031</v>
+        <v>-0.2915610779418158</v>
       </c>
       <c r="D24" t="n">
-        <v>-3.419901440126007</v>
+        <v>0.9667304022259837</v>
       </c>
       <c r="E24" t="n">
-        <v>-1.733928016668007</v>
+        <v>0.8072680958266204</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9089618921279907</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G24" t="n">
-        <v>4.147519111633301</v>
+        <v>0.2271744459867477</v>
       </c>
       <c r="H24" t="n">
-        <v>1.692317962646484</v>
+        <v>0.04398776590824127</v>
       </c>
       <c r="I24" t="n">
-        <v>2.992131948471069</v>
+        <v>0.1409687995910645</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_0</t>
+          <t>model_10_4_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.4234173019107315</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5776370030741776</v>
+        <v>-0.2915610779418158</v>
       </c>
       <c r="D25" t="n">
-        <v>-5.278020781131562</v>
+        <v>0.9667304022259837</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.3263725164153852</v>
+        <v>0.8072680958266204</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6381071805953979</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6053066849708557</v>
+        <v>0.2271744459867477</v>
       </c>
       <c r="H25" t="n">
-        <v>2.403765678405762</v>
+        <v>0.04398776590824127</v>
       </c>
       <c r="I25" t="n">
-        <v>1.451640844345093</v>
+        <v>0.1409687995910645</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>model_10_4_24</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.6731329884640765</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.2915610779418158</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9667304022259837</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.8072680958266204</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.3617455065250397</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.2271744459867477</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.04398776590824127</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.1409687995910645</v>
       </c>
     </row>
   </sheetData>
